--- a/Data_Structures_Question_Implementation/CoderArmySheet/Coder Army Sheet.xlsx
+++ b/Data_Structures_Question_Implementation/CoderArmySheet/Coder Army Sheet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tapre\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DATA MANIP\DATA_STRUCTURES\Data_Structures_Question_Implementation\CoderArmySheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2985,7 +2985,7 @@
   <dimension ref="A1:E746"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -3089,7 +3089,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>11</v>
+        <v>751</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1">
@@ -3106,7 +3106,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>11</v>
+        <v>751</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1">
@@ -3123,7 +3123,7 @@
         <v>2</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>11</v>
+        <v>751</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1">

--- a/Data_Structures_Question_Implementation/CoderArmySheet/Coder Army Sheet.xlsx
+++ b/Data_Structures_Question_Implementation/CoderArmySheet/Coder Army Sheet.xlsx
@@ -2985,7 +2985,7 @@
   <dimension ref="A1:E746"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -3140,7 +3140,7 @@
         <v>2</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>11</v>
+        <v>751</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1">
